--- a/data/trans_dic/P23_1_2016_2023_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R2-Clase-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.2382127574632305</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2372236665078155</v>
+        <v>0.2372236665078154</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1980193123502505</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1991392210887223</v>
+        <v>0.198499504511347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2014871473994484</v>
+        <v>0.2009742603060874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.157971348641776</v>
+        <v>0.1565032024725062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1161414968756106</v>
+        <v>0.1186458909233511</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1896921704906879</v>
+        <v>0.1912272206631319</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1708207994413418</v>
+        <v>0.1702939581645379</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2829362915222346</v>
+        <v>0.2853790732190393</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2757358535488558</v>
+        <v>0.2741859262376982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2446003123332604</v>
+        <v>0.2466738294976727</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1683340797682521</v>
+        <v>0.1742861140378891</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2500922097700367</v>
+        <v>0.2531920824475327</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2167069097418007</v>
+        <v>0.2160333524121155</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.186253642137453</v>
+        <v>0.1839250329776727</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1755655656749386</v>
+        <v>0.1773303852402973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1466885583223557</v>
+        <v>0.1467999138269516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1229025020519952</v>
+        <v>0.1221435562790434</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1782109204362724</v>
+        <v>0.1775798296834619</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1601466947675513</v>
+        <v>0.1604298621302241</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2728761445730494</v>
+        <v>0.2693746487625896</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2467052645801042</v>
+        <v>0.251057675636441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2293114323525457</v>
+        <v>0.2338020668014038</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1821072887562454</v>
+        <v>0.1829668009265537</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2384934880566975</v>
+        <v>0.237090863325987</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2089562149961124</v>
+        <v>0.2063818468992019</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.2256820317053805</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2251401637177811</v>
+        <v>0.225140163717781</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.09848635881526549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1209702698326917</v>
+        <v>0.1209702698326916</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1949713034059455</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1880723260444924</v>
+        <v>0.1919350537849047</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1866683424325227</v>
+        <v>0.1889759727635067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05870440710022003</v>
+        <v>0.05944208239743013</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.084337111930935</v>
+        <v>0.0845749349403238</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1660896835159044</v>
+        <v>0.1683417569956589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1665535298161147</v>
+        <v>0.1667090657819513</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2618298100280794</v>
+        <v>0.263235578802638</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2626773342281891</v>
+        <v>0.2655501323570017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1519484517602626</v>
+        <v>0.1512606006762125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1635705612086827</v>
+        <v>0.1649705931664668</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2274651670579614</v>
+        <v>0.2251503848962436</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2240371938059653</v>
+        <v>0.2260809932969032</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1223064991736837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09890742110465987</v>
+        <v>0.0989074211046599</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.185416716637133</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2051961523722169</v>
+        <v>0.2080577731794108</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1650226361246492</v>
+        <v>0.1643569156073846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.100882654664668</v>
+        <v>0.1015311054634109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08275878439366824</v>
+        <v>0.08248730038125021</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1674600857579001</v>
+        <v>0.1690668367949524</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1355404440426556</v>
+        <v>0.1343455470900664</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2560172406208909</v>
+        <v>0.2573365345241151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2102961060443283</v>
+        <v>0.2098725681393319</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1485373176452038</v>
+        <v>0.1481693070046775</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1171209082641983</v>
+        <v>0.1180762468965657</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2033260909704178</v>
+        <v>0.2063032872432136</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1647131480251589</v>
+        <v>0.1636111920737068</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.2061812463605533</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1678373248070939</v>
+        <v>0.1678373248070938</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1127053631084459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09693225425861894</v>
+        <v>0.09693225425861896</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1554350863988054</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1786551275811764</v>
+        <v>0.175437546702117</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1398052630596744</v>
+        <v>0.1396310036866168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08944803056574079</v>
+        <v>0.09017923337241987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07952354321545423</v>
+        <v>0.0798419740885225</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1346161763533788</v>
+        <v>0.1370985236525265</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1115312397616665</v>
+        <v>0.1099238090749772</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2404382986754275</v>
+        <v>0.243188792223611</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1993196036449733</v>
+        <v>0.2014328281122308</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1369694336404459</v>
+        <v>0.1389964728788723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1162712796560334</v>
+        <v>0.115800675640847</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1769398768796645</v>
+        <v>0.1760446048077672</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1434251004321102</v>
+        <v>0.1424426301359348</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1022,13 @@
         <v>0.01939919001127695</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.02823390429492625</v>
+        <v>0.02823390429492626</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.04342987030858863</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04520703254748134</v>
+        <v>0.04520703254748135</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.03838127714344507</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007363555835206866</v>
+        <v>0.007352801032206967</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009051913590016662</v>
+        <v>0.01005490095004478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03163636646497286</v>
+        <v>0.03138765208720107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03416102509310007</v>
+        <v>0.03385846970745268</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02938400255349055</v>
+        <v>0.02859346977779826</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03260253086953241</v>
+        <v>0.03235357832630612</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04233734022620127</v>
+        <v>0.04184797979155741</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06202989513657203</v>
+        <v>0.05982631279326484</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05714343554133985</v>
+        <v>0.05755710424648672</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05840672039362257</v>
+        <v>0.05804997633114437</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0509485282591841</v>
+        <v>0.05055453931402579</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05331779452658562</v>
+        <v>0.05358093513171189</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.1576242847098001</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1430080503867412</v>
+        <v>0.1430080503867413</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1943589863654507</v>
+        <v>0.1943756373679248</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1771107577073018</v>
+        <v>0.1766376016186924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09970969826158918</v>
+        <v>0.09870219485374947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09033005566674317</v>
+        <v>0.09079698877490294</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1495157150306832</v>
+        <v>0.1488521993203938</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1357795208433764</v>
+        <v>0.1354344908824464</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2234489616393664</v>
+        <v>0.2216850174675559</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2039407914242337</v>
+        <v>0.2038539972886498</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1206925562024144</v>
+        <v>0.1201804035807638</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1069218830972763</v>
+        <v>0.1079599538479527</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1669457781823313</v>
+        <v>0.166736560409664</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1512660363779676</v>
+        <v>0.1509316617232145</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>85449</v>
+        <v>85175</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>110942</v>
+        <v>110660</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54825</v>
+        <v>54315</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>56725</v>
+        <v>57948</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>147229</v>
+        <v>148420</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>177488</v>
+        <v>176940</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121406</v>
+        <v>122454</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>151825</v>
+        <v>150972</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84890</v>
+        <v>85609</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82216</v>
+        <v>85123</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>194108</v>
+        <v>196514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>225165</v>
+        <v>224465</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>70060</v>
+        <v>69184</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>84835</v>
+        <v>85688</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54458</v>
+        <v>54499</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52005</v>
+        <v>51684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>133195</v>
+        <v>132723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>145150</v>
+        <v>145406</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>102644</v>
+        <v>101327</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119211</v>
+        <v>121314</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>85131</v>
+        <v>86798</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>77057</v>
+        <v>77421</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>178250</v>
+        <v>177202</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>189389</v>
+        <v>187055</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>98158</v>
+        <v>100174</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>88035</v>
+        <v>89123</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9752</v>
+        <v>9875</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15813</v>
+        <v>15858</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>114276</v>
+        <v>115825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>109777</v>
+        <v>109879</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>136653</v>
+        <v>137386</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>123882</v>
+        <v>125237</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25242</v>
+        <v>25128</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30669</v>
+        <v>30931</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>156504</v>
+        <v>154912</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>147665</v>
+        <v>149012</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>235724</v>
+        <v>239011</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>186780</v>
+        <v>186026</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>83223</v>
+        <v>83758</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71215</v>
+        <v>70981</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>330520</v>
+        <v>333691</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>270044</v>
+        <v>267664</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>294106</v>
+        <v>295622</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>238022</v>
+        <v>237543</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>122536</v>
+        <v>122232</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>100784</v>
+        <v>101606</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>401309</v>
+        <v>407185</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>328167</v>
+        <v>325971</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>110892</v>
+        <v>108895</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>79253</v>
+        <v>79154</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>65937</v>
+        <v>66476</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>66016</v>
+        <v>66280</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>182790</v>
+        <v>186161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>155812</v>
+        <v>153566</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>149241</v>
+        <v>150949</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>112991</v>
+        <v>114189</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100968</v>
+        <v>102462</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>96522</v>
+        <v>96131</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>240260</v>
+        <v>239044</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>200369</v>
+        <v>198996</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2137</v>
+        <v>2374</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>34156</v>
+        <v>33887</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28842</v>
+        <v>28586</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>40161</v>
+        <v>39081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>35223</v>
+        <v>34954</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12157</v>
+        <v>12016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14644</v>
+        <v>14124</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>61694</v>
+        <v>62140</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>49312</v>
+        <v>49010</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>69635</v>
+        <v>69097</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>57603</v>
+        <v>57887</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>657669</v>
+        <v>657725</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>609306</v>
+        <v>607678</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>351592</v>
+        <v>348039</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>328258</v>
+        <v>329955</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1033145</v>
+        <v>1028560</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>960537</v>
+        <v>958096</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>756103</v>
+        <v>750134</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>701608</v>
+        <v>701309</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>425581</v>
+        <v>423775</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>388553</v>
+        <v>392325</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1153586</v>
+        <v>1152140</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1070092</v>
+        <v>1067726</v>
       </c>
     </row>
     <row r="32">
